--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ltb</t>
+  </si>
+  <si>
+    <t>Ltbr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ltb</t>
-  </si>
-  <si>
-    <t>Ltbr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H2">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I2">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J2">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N2">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O2">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P2">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q2">
-        <v>3.177251689603001</v>
+        <v>14.26613267822625</v>
       </c>
       <c r="R2">
-        <v>12.709006758412</v>
+        <v>57.064530712905</v>
       </c>
       <c r="S2">
-        <v>0.006387992954166567</v>
+        <v>0.002057970796790007</v>
       </c>
       <c r="T2">
-        <v>0.003205631529049036</v>
+        <v>0.001007862488319567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H3">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I3">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J3">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>43.682362</v>
       </c>
       <c r="O3">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P3">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q3">
-        <v>3.435479443820333</v>
+        <v>18.76182929277833</v>
       </c>
       <c r="R3">
-        <v>20.612876662922</v>
+        <v>112.57097575667</v>
       </c>
       <c r="S3">
-        <v>0.006907170292212673</v>
+        <v>0.002706500608803939</v>
       </c>
       <c r="T3">
-        <v>0.005199248736831912</v>
+        <v>0.001988206374805449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H4">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I4">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J4">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N4">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O4">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P4">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q4">
-        <v>3.157145312074</v>
+        <v>21.2193770584625</v>
       </c>
       <c r="R4">
-        <v>18.942871872444</v>
+        <v>127.316262350775</v>
       </c>
       <c r="S4">
-        <v>0.006347568269395964</v>
+        <v>0.003061015854636026</v>
       </c>
       <c r="T4">
-        <v>0.004778018336078854</v>
+        <v>0.002248634718858386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H5">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I5">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J5">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N5">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O5">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P5">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q5">
-        <v>2.11064821204</v>
+        <v>12.49778028084875</v>
       </c>
       <c r="R5">
-        <v>8.44259284816</v>
+        <v>49.991121123395</v>
       </c>
       <c r="S5">
-        <v>0.004243543547826539</v>
+        <v>0.001802875903568464</v>
       </c>
       <c r="T5">
-        <v>0.002129500938621519</v>
+        <v>0.0008829333230267937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H6">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I6">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J6">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N6">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O6">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P6">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q6">
-        <v>2.247789886014334</v>
+        <v>18.57239402696333</v>
       </c>
       <c r="R6">
-        <v>13.486739316086</v>
+        <v>111.43436416178</v>
       </c>
       <c r="S6">
-        <v>0.004519272426951037</v>
+        <v>0.002679173494040424</v>
       </c>
       <c r="T6">
-        <v>0.003401801383660022</v>
+        <v>0.001968131764956434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H7">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I7">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J7">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.58761566666667</v>
+        <v>12.430761</v>
       </c>
       <c r="N7">
-        <v>46.762847</v>
+        <v>37.292283</v>
       </c>
       <c r="O7">
-        <v>0.2065447903690724</v>
+        <v>0.1580627621894702</v>
       </c>
       <c r="P7">
-        <v>0.2292371137135739</v>
+        <v>0.1733216429952798</v>
       </c>
       <c r="Q7">
-        <v>3.677749834201167</v>
+        <v>16.0172530868175</v>
       </c>
       <c r="R7">
-        <v>22.066499005207</v>
+        <v>96.103518520905</v>
       </c>
       <c r="S7">
-        <v>0.007394264705230146</v>
+        <v>0.002310579877598853</v>
       </c>
       <c r="T7">
-        <v>0.005565900332848621</v>
+        <v>0.001697361392491754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H8">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I8">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J8">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N8">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O8">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P8">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q8">
-        <v>36.470621778258</v>
+        <v>36.2472984119655</v>
       </c>
       <c r="R8">
-        <v>218.823730669548</v>
+        <v>217.483790471793</v>
       </c>
       <c r="S8">
-        <v>0.07332565931617967</v>
+        <v>0.005228879001539785</v>
       </c>
       <c r="T8">
-        <v>0.05519457685976448</v>
+        <v>0.003841155819485298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,14 +962,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H9">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I9">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J9">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>43.682362</v>
       </c>
       <c r="O9">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P9">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q9">
-        <v>39.43473280148199</v>
+        <v>47.66993553674465</v>
       </c>
       <c r="R9">
-        <v>354.912595213338</v>
+        <v>429.0294198307019</v>
       </c>
       <c r="S9">
-        <v>0.07928512434492853</v>
+        <v>0.00687665938851202</v>
       </c>
       <c r="T9">
-        <v>0.08952068614799073</v>
+        <v>0.007577433008400866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H10">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I10">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J10">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N10">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O10">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P10">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q10">
-        <v>36.23982731756399</v>
+        <v>53.91405713813499</v>
       </c>
       <c r="R10">
-        <v>326.158445858076</v>
+        <v>485.2265142432149</v>
       </c>
       <c r="S10">
-        <v>0.07286163772368248</v>
+        <v>0.007777409451413065</v>
       </c>
       <c r="T10">
-        <v>0.0822679393742743</v>
+        <v>0.008569975007841443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H11">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I11">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J11">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N11">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O11">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P11">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q11">
-        <v>24.22743306744</v>
+        <v>31.75427998216449</v>
       </c>
       <c r="R11">
-        <v>145.36459840464</v>
+        <v>190.525679892987</v>
       </c>
       <c r="S11">
-        <v>0.04871023351369647</v>
+        <v>0.004580735532912001</v>
       </c>
       <c r="T11">
-        <v>0.03666575592502794</v>
+        <v>0.003365026986584811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H12">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I12">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J12">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N12">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O12">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P12">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q12">
-        <v>25.801637005366</v>
+        <v>47.18861962831866</v>
       </c>
       <c r="R12">
-        <v>232.214733048294</v>
+        <v>424.697576654868</v>
       </c>
       <c r="S12">
-        <v>0.05187523416403811</v>
+        <v>0.006807226830585304</v>
       </c>
       <c r="T12">
-        <v>0.05857223022378256</v>
+        <v>0.007500924848469239</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H13">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I13">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J13">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.58761566666667</v>
+        <v>12.430761</v>
       </c>
       <c r="N13">
-        <v>46.762847</v>
+        <v>37.292283</v>
       </c>
       <c r="O13">
-        <v>0.2065447903690724</v>
+        <v>0.1580627621894702</v>
       </c>
       <c r="P13">
-        <v>0.2292371137135739</v>
+        <v>0.1733216429952798</v>
       </c>
       <c r="Q13">
-        <v>42.21567452056699</v>
+        <v>40.69653391517699</v>
       </c>
       <c r="R13">
-        <v>379.941070685103</v>
+        <v>366.2688052365929</v>
       </c>
       <c r="S13">
-        <v>0.0848763200835584</v>
+        <v>0.005870706533932326</v>
       </c>
       <c r="T13">
-        <v>0.09583369483714067</v>
+        <v>0.006468967409839844</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H14">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I14">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J14">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N14">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O14">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P14">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q14">
-        <v>1.357775984765</v>
+        <v>905.818056071148</v>
       </c>
       <c r="R14">
-        <v>5.431103939060001</v>
+        <v>5434.908336426888</v>
       </c>
       <c r="S14">
-        <v>0.00272986350196863</v>
+        <v>0.1306694076555645</v>
       </c>
       <c r="T14">
-        <v>0.001369903907956419</v>
+        <v>0.09599027927344729</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H15">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I15">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J15">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>43.682362</v>
       </c>
       <c r="O15">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P15">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q15">
-        <v>1.468127784851667</v>
+        <v>1191.269149225115</v>
       </c>
       <c r="R15">
-        <v>8.808766709109999</v>
+        <v>10721.42234302603</v>
       </c>
       <c r="S15">
-        <v>0.00295173025673029</v>
+        <v>0.1718473517328157</v>
       </c>
       <c r="T15">
-        <v>0.002221862088165955</v>
+        <v>0.1893596471568552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H16">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I16">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J16">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N16">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O16">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P16">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q16">
-        <v>1.34918366687</v>
+        <v>1347.30941535916</v>
       </c>
       <c r="R16">
-        <v>8.095102001220001</v>
+        <v>12125.78473823244</v>
       </c>
       <c r="S16">
-        <v>0.002712588299518402</v>
+        <v>0.1943570478130524</v>
       </c>
       <c r="T16">
-        <v>0.002041852262672117</v>
+        <v>0.2141632188405713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H17">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I17">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J17">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N17">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O17">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P17">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q17">
-        <v>0.9019705501999999</v>
+        <v>793.537764896932</v>
       </c>
       <c r="R17">
-        <v>3.6078822008</v>
+        <v>4761.226589381592</v>
       </c>
       <c r="S17">
-        <v>0.001813448251014473</v>
+        <v>0.1144723369074222</v>
       </c>
       <c r="T17">
-        <v>0.0009100271292502186</v>
+        <v>0.08409184510724821</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H18">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I18">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J18">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N18">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O18">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P18">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q18">
-        <v>0.9605770723216668</v>
+        <v>1179.241090317899</v>
       </c>
       <c r="R18">
-        <v>5.763462433930001</v>
+        <v>10613.16981286109</v>
       </c>
       <c r="S18">
-        <v>0.001931279032757859</v>
+        <v>0.1701122358095704</v>
       </c>
       <c r="T18">
-        <v>0.001453735704599171</v>
+        <v>0.1874477123164929</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H19">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I19">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J19">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.58761566666667</v>
+        <v>12.430761</v>
       </c>
       <c r="N19">
-        <v>46.762847</v>
+        <v>37.292283</v>
       </c>
       <c r="O19">
-        <v>0.2065447903690724</v>
+        <v>0.1580627621894702</v>
       </c>
       <c r="P19">
-        <v>0.2292371137135739</v>
+        <v>0.1733216429952798</v>
       </c>
       <c r="Q19">
-        <v>1.571660318630833</v>
+        <v>1017.004214242632</v>
       </c>
       <c r="R19">
-        <v>9.429961911785</v>
+        <v>9153.037928183689</v>
       </c>
       <c r="S19">
-        <v>0.00315988660092944</v>
+        <v>0.146708643493699</v>
       </c>
       <c r="T19">
-        <v>0.002378548048386327</v>
+        <v>0.1616591509074896</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H20">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I20">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J20">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N20">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O20">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P20">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q20">
-        <v>8.755329355014668</v>
+        <v>19.5899076121815</v>
       </c>
       <c r="R20">
-        <v>52.53197613008801</v>
+        <v>117.539445673089</v>
       </c>
       <c r="S20">
-        <v>0.01760294357990562</v>
+        <v>0.002825955617195082</v>
       </c>
       <c r="T20">
-        <v>0.0132503005283556</v>
+        <v>0.002075958510686425</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,14 +1706,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H21">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I21">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J21">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>43.682362</v>
       </c>
       <c r="O21">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P21">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q21">
-        <v>9.466909442980889</v>
+        <v>25.763289236894</v>
       </c>
       <c r="R21">
-        <v>85.202184986828</v>
+        <v>231.869603132046</v>
       </c>
       <c r="S21">
-        <v>0.0190336041105548</v>
+        <v>0.003716501036030902</v>
       </c>
       <c r="T21">
-        <v>0.02149080693161671</v>
+        <v>0.004095235205806841</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H22">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I22">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J22">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N22">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O22">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P22">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q22">
-        <v>8.699923622450667</v>
+        <v>29.137934262855</v>
       </c>
       <c r="R22">
-        <v>78.29931260205601</v>
+        <v>262.241408365695</v>
       </c>
       <c r="S22">
-        <v>0.0174915481149516</v>
+        <v>0.004203312778890977</v>
       </c>
       <c r="T22">
-        <v>0.01974967438064213</v>
+        <v>0.004631656040520202</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H23">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I23">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J23">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N23">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O23">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P23">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q23">
-        <v>5.816165055306667</v>
+        <v>17.1616489613085</v>
       </c>
       <c r="R23">
-        <v>34.89699033184</v>
+        <v>102.969893767851</v>
       </c>
       <c r="S23">
-        <v>0.01169363494719273</v>
+        <v>0.002475665492796024</v>
       </c>
       <c r="T23">
-        <v>0.008802174284990584</v>
+        <v>0.001818633958053357</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H24">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I24">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J24">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N24">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O24">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P24">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q24">
-        <v>6.194076735351556</v>
+        <v>25.503161321396</v>
       </c>
       <c r="R24">
-        <v>55.74669061816401</v>
+        <v>229.528451892564</v>
       </c>
       <c r="S24">
-        <v>0.01245344165602971</v>
+        <v>0.003678976104390402</v>
       </c>
       <c r="T24">
-        <v>0.01406115776651438</v>
+        <v>0.004053886254290394</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H25">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I25">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J25">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.58761566666667</v>
+        <v>12.430761</v>
       </c>
       <c r="N25">
-        <v>46.762847</v>
+        <v>37.292283</v>
       </c>
       <c r="O25">
-        <v>0.2065447903690724</v>
+        <v>0.1580627621894702</v>
       </c>
       <c r="P25">
-        <v>0.2292371137135739</v>
+        <v>0.1733216429952798</v>
       </c>
       <c r="Q25">
-        <v>10.13451694404645</v>
+        <v>21.994503713721</v>
       </c>
       <c r="R25">
-        <v>91.21065249641801</v>
+        <v>197.950533423489</v>
       </c>
       <c r="S25">
-        <v>0.02037585597776158</v>
+        <v>0.003172832284239977</v>
       </c>
       <c r="T25">
-        <v>0.02300634101355901</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H26">
-        <v>8.686007</v>
-      </c>
-      <c r="I26">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J26">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>13.466326</v>
-      </c>
-      <c r="N26">
-        <v>26.932652</v>
-      </c>
-      <c r="O26">
-        <v>0.178436493443925</v>
-      </c>
-      <c r="P26">
-        <v>0.1320271070991917</v>
-      </c>
-      <c r="Q26">
-        <v>38.98953396676067</v>
-      </c>
-      <c r="R26">
-        <v>233.937203800564</v>
-      </c>
-      <c r="S26">
-        <v>0.07839003409170459</v>
-      </c>
-      <c r="T26">
-        <v>0.05900669427406618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H27">
-        <v>8.686007</v>
-      </c>
-      <c r="I27">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J27">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>14.56078733333333</v>
-      </c>
-      <c r="N27">
-        <v>43.682362</v>
-      </c>
-      <c r="O27">
-        <v>0.1929387298022281</v>
-      </c>
-      <c r="P27">
-        <v>0.2141362048609124</v>
-      </c>
-      <c r="Q27">
-        <v>42.15836690094822</v>
-      </c>
-      <c r="R27">
-        <v>379.425302108534</v>
-      </c>
-      <c r="S27">
-        <v>0.08476110079780186</v>
-      </c>
-      <c r="T27">
-        <v>0.09570360095630707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H28">
-        <v>8.686007</v>
-      </c>
-      <c r="I28">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J28">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>13.381108</v>
-      </c>
-      <c r="N28">
-        <v>40.143324</v>
-      </c>
-      <c r="O28">
-        <v>0.1773073063814475</v>
-      </c>
-      <c r="P28">
-        <v>0.1967874139191919</v>
-      </c>
-      <c r="Q28">
-        <v>38.74279925191866</v>
-      </c>
-      <c r="R28">
-        <v>348.685193267268</v>
-      </c>
-      <c r="S28">
-        <v>0.0778939639738991</v>
-      </c>
-      <c r="T28">
-        <v>0.08794992956552453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H29">
-        <v>8.686007</v>
-      </c>
-      <c r="I29">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J29">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>8.945679999999999</v>
-      </c>
-      <c r="N29">
-        <v>17.89136</v>
-      </c>
-      <c r="O29">
-        <v>0.1185353578007432</v>
-      </c>
-      <c r="P29">
-        <v>0.08770560369881859</v>
-      </c>
-      <c r="Q29">
-        <v>25.90074636658666</v>
-      </c>
-      <c r="R29">
-        <v>155.40447819952</v>
-      </c>
-      <c r="S29">
-        <v>0.05207449754101302</v>
-      </c>
-      <c r="T29">
-        <v>0.03919814542092834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H30">
-        <v>8.686007</v>
-      </c>
-      <c r="I30">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J30">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>9.526935333333334</v>
-      </c>
-      <c r="N30">
-        <v>28.580806</v>
-      </c>
-      <c r="O30">
-        <v>0.1262373222025838</v>
-      </c>
-      <c r="P30">
-        <v>0.1401065567083116</v>
-      </c>
-      <c r="Q30">
-        <v>27.58367566462689</v>
-      </c>
-      <c r="R30">
-        <v>248.253080981642</v>
-      </c>
-      <c r="S30">
-        <v>0.05545809492280707</v>
-      </c>
-      <c r="T30">
-        <v>0.06261763162975545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H31">
-        <v>8.686007</v>
-      </c>
-      <c r="I31">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J31">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>15.58761566666667</v>
-      </c>
-      <c r="N31">
-        <v>46.762847</v>
-      </c>
-      <c r="O31">
-        <v>0.2065447903690724</v>
-      </c>
-      <c r="P31">
-        <v>0.2292371137135739</v>
-      </c>
-      <c r="Q31">
-        <v>45.13137959799211</v>
-      </c>
-      <c r="R31">
-        <v>406.182416381929</v>
-      </c>
-      <c r="S31">
-        <v>0.09073846300159288</v>
-      </c>
-      <c r="T31">
-        <v>0.1024526294816393</v>
+        <v>0.003496163285458601</v>
       </c>
     </row>
   </sheetData>
